--- a/Luban/MiniTemplate/Datas/__tables__.xlsx
+++ b/Luban/MiniTemplate/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="22545" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
   <si>
     <t>##var</t>
   </si>
@@ -369,6 +369,96 @@
   </si>
   <si>
     <t>HeroRes@playerConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Table_Doorgenerate</t>
+  </si>
+  <si>
+    <t>DoorRes_Doorgenerate</t>
+  </si>
+  <si>
+    <t>Doorgenerate@DoorRes.xlsx</t>
+  </si>
+  <si>
+    <t>Table_Doorcontent</t>
+  </si>
+  <si>
+    <t>DoorRes_Doorcontent</t>
+  </si>
+  <si>
+    <t>Doorcontent@DoorRes.xlsx</t>
+  </si>
+  <si>
+    <t>Table_Global</t>
+  </si>
+  <si>
+    <t>GlobalResnew_Global</t>
+  </si>
+  <si>
+    <t>Global@GlobalResnew.xlsx</t>
+  </si>
+  <si>
+    <t>Table_monster</t>
+  </si>
+  <si>
+    <t>monsterConfignew_monster</t>
+  </si>
+  <si>
+    <t>monster@monsterConfignew.xlsx</t>
+  </si>
+  <si>
+    <t>Table_Boxgenerate</t>
+  </si>
+  <si>
+    <t>BoxRes_Boxgenerate</t>
+  </si>
+  <si>
+    <t>Boxgenerate@BoxRes.xlsx</t>
+  </si>
+  <si>
+    <t>Table_boxcontent</t>
+  </si>
+  <si>
+    <t>BoxRes_boxcontent</t>
+  </si>
+  <si>
+    <t>boxcontent@BoxRes.xlsx</t>
+  </si>
+  <si>
+    <t>Table_Player</t>
+  </si>
+  <si>
+    <t>PlayerConfignew_Player</t>
+  </si>
+  <si>
+    <t>Player@PlayerConfignew.xlsx</t>
+  </si>
+  <si>
+    <t>Table_transmit</t>
+  </si>
+  <si>
+    <t>transmitConfig_transmit</t>
+  </si>
+  <si>
+    <t>transmit@transmitConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Table_illustrate</t>
+  </si>
+  <si>
+    <t>transmitConfig_illustrate</t>
+  </si>
+  <si>
+    <t>illustrate@transmitConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Table_level</t>
+  </si>
+  <si>
+    <t>levelConfignew_level</t>
+  </si>
+  <si>
+    <t>level@levelConfignew.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1316,14 +1406,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="31.425" customWidth="1"/>
     <col min="4" max="4" width="53.2083333333333" customWidth="1"/>
@@ -1825,6 +1916,146 @@
       </c>
       <c r="E32" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/MiniTemplate/Datas/__tables__.xlsx
+++ b/Luban/MiniTemplate/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22545" windowHeight="10845"/>
+    <workbookView windowWidth="16740" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -110,265 +110,40 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Table_sectionReslevelConfig</t>
-  </si>
-  <si>
-    <t>levelConfig_sectionRes</t>
-  </si>
-  <si>
-    <t>SectionRes@levelConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_waveReslevelConfig</t>
-  </si>
-  <si>
-    <t>levelConfig_waveRes</t>
-  </si>
-  <si>
-    <t>waveRes@levelConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_NestReslevelConfig</t>
-  </si>
-  <si>
-    <t>levelConfig_NestRes</t>
-  </si>
-  <si>
-    <t>NestRes@levelConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_EnemyReslevelConfig</t>
-  </si>
-  <si>
-    <t>levelConfig_EnemyRes</t>
-  </si>
-  <si>
-    <t>EnemyRes@levelConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_DoorReslevelConfig</t>
-  </si>
-  <si>
-    <t>levelConfig_DoorRes</t>
-  </si>
-  <si>
-    <t>DoorRes@levelConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_PhysiqueReslevelConfig</t>
-  </si>
-  <si>
-    <t>levelConfig_PhysiqueRes</t>
-  </si>
-  <si>
-    <t>PhysiqueRes@levelConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_BoxRewardReslevelConfig</t>
-  </si>
-  <si>
-    <t>levelConfig_BoxRewardRes</t>
-  </si>
-  <si>
-    <t>BoxRewardRes@levelConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_DoorTypeReslevelConfig</t>
-  </si>
-  <si>
-    <t>levelConfig_DoorTypeRes</t>
-  </si>
-  <si>
-    <t>DoorTypeRes@levelConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_DialogueReslevelConfig</t>
-  </si>
-  <si>
-    <t>levelConfig_DialogueRes</t>
-  </si>
-  <si>
-    <t>DialogueRes@levelConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_TopicReslevelConfig</t>
-  </si>
-  <si>
-    <t>levelConfig_TopicRes</t>
-  </si>
-  <si>
-    <t>TopicRes@levelConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_AbilityRescompetenceConfi</t>
-  </si>
-  <si>
-    <t>competenceConfig_AbilityRes</t>
-  </si>
-  <si>
-    <t>AbilityRes@competenceConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_MonsterResmonsterConfig</t>
-  </si>
-  <si>
-    <t>monsterConfig_MonsterRes</t>
-  </si>
-  <si>
-    <t>MonsterRes@monsterConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_HeroLevelResheroConfig</t>
-  </si>
-  <si>
-    <t>heroConfig_HeroLevelRes</t>
-  </si>
-  <si>
-    <t>HeroLevelRes@heroConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_HeroResheroConfig</t>
-  </si>
-  <si>
-    <t>heroConfig_HeroRes</t>
-  </si>
-  <si>
-    <t>HeroRes@heroConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_AttributeResattributeConfig</t>
-  </si>
-  <si>
-    <t>attributeConfig_AttributeRes</t>
-  </si>
-  <si>
-    <t>AttributeRes@attributeConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_GenusResattributeConfig</t>
-  </si>
-  <si>
-    <t>attributeConfig_GenusRes</t>
-  </si>
-  <si>
-    <t>GenusRes@attributeConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_ItemResitemConfig</t>
-  </si>
-  <si>
-    <t>itemConfig_ItemRes</t>
-  </si>
-  <si>
-    <t>ItemRes@itemConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_ItemEnumitemConfig</t>
-  </si>
-  <si>
-    <t>itemConfig_ItemEnum</t>
-  </si>
-  <si>
-    <t>ItemEnum@itemConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_SkillResskillConfig</t>
-  </si>
-  <si>
-    <t>skillConfig_SkillRes</t>
-  </si>
-  <si>
-    <t>SkillRes@skillConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_FireResskillConfig</t>
-  </si>
-  <si>
-    <t>skillConfig_FireRes</t>
-  </si>
-  <si>
-    <t>FireRes@skillConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_BulletResskillConfig</t>
-  </si>
-  <si>
-    <t>skillConfig_BulletRes</t>
-  </si>
-  <si>
-    <t>BulletRes@skillConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_BuffResskillConfig</t>
-  </si>
-  <si>
-    <t>skillConfig_BuffRes</t>
-  </si>
-  <si>
-    <t>BuffRes@skillConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_StrategyEnumskillConfig</t>
-  </si>
-  <si>
-    <t>skillConfig_StrategyEnum</t>
-  </si>
-  <si>
-    <t>StrategyEnum@skillConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_EquipResequipmentConfi</t>
-  </si>
-  <si>
-    <t>equipmentConfig_EquipRes</t>
-  </si>
-  <si>
-    <t>EquipRes@equipmentConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_LevelResequipmentConfi</t>
-  </si>
-  <si>
-    <t>equipmentConfig_LevelRes</t>
-  </si>
-  <si>
-    <t>LevelRes@equipmentConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_LanguagelanguageConfig</t>
-  </si>
-  <si>
-    <t>languageConfig_Language</t>
-  </si>
-  <si>
-    <t>Sheet1@languageConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_GlobalResConfig</t>
-  </si>
-  <si>
-    <t>GlobalResConfig_GlobalRes</t>
-  </si>
-  <si>
-    <t>GlobalRes@GlobalResConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_PlayerLevelRes</t>
-  </si>
-  <si>
-    <t>playerConfig_PlayerLevelRes</t>
-  </si>
-  <si>
-    <t>PlayerLevelRes@playerConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_HeroReshero</t>
-  </si>
-  <si>
-    <t>playerConfig_HeroRes</t>
-  </si>
-  <si>
-    <t>HeroRes@playerConfig.xlsx</t>
+    <t>Table_Global</t>
+  </si>
+  <si>
+    <t>GlobalResnew_Global</t>
+  </si>
+  <si>
+    <t>Global@GlobalResnew.xlsx</t>
+  </si>
+  <si>
+    <t>Table_PlayerConfig</t>
+  </si>
+  <si>
+    <t>PlayerConfignew_PlayerConfig</t>
+  </si>
+  <si>
+    <t>PlayerConfig@PlayerConfignew.xlsx</t>
+  </si>
+  <si>
+    <t>Table_levelConfig</t>
+  </si>
+  <si>
+    <t>levelConfignew_levelConfig</t>
+  </si>
+  <si>
+    <t>levelConfig@levelConfignew.xlsx</t>
+  </si>
+  <si>
+    <t>Table_danConfig</t>
+  </si>
+  <si>
+    <t>levelConfignew_danConfig</t>
+  </si>
+  <si>
+    <t>danConfig@levelConfignew.xlsx</t>
   </si>
   <si>
     <t>Table_Doorgenerate</t>
@@ -389,22 +164,13 @@
     <t>Doorcontent@DoorRes.xlsx</t>
   </si>
   <si>
-    <t>Table_Global</t>
-  </si>
-  <si>
-    <t>GlobalResnew_Global</t>
-  </si>
-  <si>
-    <t>Global@GlobalResnew.xlsx</t>
-  </si>
-  <si>
-    <t>Table_monster</t>
-  </si>
-  <si>
-    <t>monsterConfignew_monster</t>
-  </si>
-  <si>
-    <t>monster@monsterConfignew.xlsx</t>
+    <t>Table_monsterConfig</t>
+  </si>
+  <si>
+    <t>monsterConfignew_monsterConfig</t>
+  </si>
+  <si>
+    <t>monsterConfig@monsterConfignew.xlsx</t>
   </si>
   <si>
     <t>Table_Boxgenerate</t>
@@ -425,40 +191,13 @@
     <t>boxcontent@BoxRes.xlsx</t>
   </si>
   <si>
-    <t>Table_Player</t>
-  </si>
-  <si>
-    <t>PlayerConfignew_Player</t>
-  </si>
-  <si>
-    <t>Player@PlayerConfignew.xlsx</t>
-  </si>
-  <si>
-    <t>Table_transmit</t>
-  </si>
-  <si>
-    <t>transmitConfig_transmit</t>
-  </si>
-  <si>
-    <t>transmit@transmitConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_illustrate</t>
-  </si>
-  <si>
-    <t>transmitConfig_illustrate</t>
-  </si>
-  <si>
-    <t>illustrate@transmitConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Table_level</t>
-  </si>
-  <si>
-    <t>levelConfignew_level</t>
-  </si>
-  <si>
-    <t>level@levelConfignew.xlsx</t>
+    <t>Table_transmitConfig</t>
+  </si>
+  <si>
+    <t>transmitConfig_transmitConfig</t>
+  </si>
+  <si>
+    <t>transmitConfig@transmitConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -471,7 +210,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +223,19 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -944,144 +696,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
@@ -1406,10 +1161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1512,557 +1267,154 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
+    <row r="4" s="2" customFormat="1" spans="2:5">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
+    <row r="5" s="2" customFormat="1" spans="2:5">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="b">
+      <c r="D5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
+    <row r="6" s="2" customFormat="1" spans="2:5">
+      <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="b">
+      <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
+    <row r="7" s="2" customFormat="1" spans="2:5">
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="b">
+      <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
+    <row r="8" s="2" customFormat="1" spans="2:5">
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="b">
+      <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
+    <row r="9" s="2" customFormat="1" spans="2:5">
+      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="b">
+      <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
+    <row r="10" s="2" customFormat="1" spans="2:5">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="b">
+      <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
+    <row r="11" s="2" customFormat="1" spans="2:5">
+      <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="b">
+      <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
+    <row r="12" s="2" customFormat="1" spans="2:5">
+      <c r="B12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="b">
+      <c r="D12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="2:5">
-      <c r="B13" t="s">
+    <row r="13" s="2" customFormat="1" spans="2:5">
+      <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="b">
+      <c r="D13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" display="TopicRes@levelConfig.xlsx"/>
-    <hyperlink ref="E14" r:id="rId2" display="AbilityRes@competenceConfig.xlsx" tooltip="mailto:AbilityRes@competenceConfig.xlsx"/>
-    <hyperlink ref="E12" r:id="rId3" display="DialogueRes@levelConfig.xlsx"/>
+    <hyperlink ref="E4" r:id="rId1" display="Global@GlobalResnew.xlsx" tooltip="mailto:Global@GlobalResnew.xlsx"/>
+    <hyperlink ref="E10" r:id="rId2" display="monsterConfig@monsterConfignew.xlsx"/>
+    <hyperlink ref="E13" r:id="rId3" display="transmitConfig@transmitConfig.xlsx"/>
+    <hyperlink ref="E5" r:id="rId4" display="PlayerConfig@PlayerConfignew.xlsx" tooltip="mailto:PlayerConfig@PlayerConfignew.xlsx"/>
+    <hyperlink ref="E6" r:id="rId5" display="levelConfig@levelConfignew.xlsx" tooltip="mailto:levelConfig@levelConfignew.xlsx"/>
+    <hyperlink ref="E7" r:id="rId6" display="danConfig@levelConfignew.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/MiniTemplate/Datas/__tables__.xlsx
+++ b/Luban/MiniTemplate/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16740" windowHeight="9120"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -198,6 +198,33 @@
   </si>
   <si>
     <t>transmitConfig@transmitConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Table_DailyConfig</t>
+  </si>
+  <si>
+    <t>DailyConfig</t>
+  </si>
+  <si>
+    <t>DailyConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Table_turntableConfig</t>
+  </si>
+  <si>
+    <t>turntableConfig</t>
+  </si>
+  <si>
+    <t>turntableConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Table_JumpConfig</t>
+  </si>
+  <si>
+    <t>JumpConfig</t>
+  </si>
+  <si>
+    <t>JumpConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -826,14 +853,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1161,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1268,143 +1292,185 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="2:5">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:5">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:5">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="2:5">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="2:5">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="2:5">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="2:5">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="2:5">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="2:5">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="2:5">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1415,6 +1481,9 @@
     <hyperlink ref="E5" r:id="rId4" display="PlayerConfig@PlayerConfignew.xlsx" tooltip="mailto:PlayerConfig@PlayerConfignew.xlsx"/>
     <hyperlink ref="E6" r:id="rId5" display="levelConfig@levelConfignew.xlsx" tooltip="mailto:levelConfig@levelConfignew.xlsx"/>
     <hyperlink ref="E7" r:id="rId6" display="danConfig@levelConfignew.xlsx"/>
+    <hyperlink ref="E14" r:id="rId3" display="DailyConfig.xlsx"/>
+    <hyperlink ref="E15" r:id="rId3" display="turntableConfig.xlsx"/>
+    <hyperlink ref="E16" r:id="rId3" display="JumpConfig.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/MiniTemplate/Datas/__tables__.xlsx
+++ b/Luban/MiniTemplate/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>JumpConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Table_beginnerConfig</t>
+  </si>
+  <si>
+    <t>levelConfignew_beginnerConfig</t>
+  </si>
+  <si>
+    <t>beginnerConfig@levelConfignew.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1473,6 +1482,20 @@
         <v>65</v>
       </c>
     </row>
+    <row r="17" s="2" customFormat="1" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="Global@GlobalResnew.xlsx" tooltip="mailto:Global@GlobalResnew.xlsx"/>
@@ -1484,6 +1507,7 @@
     <hyperlink ref="E14" r:id="rId3" display="DailyConfig.xlsx"/>
     <hyperlink ref="E15" r:id="rId3" display="turntableConfig.xlsx"/>
     <hyperlink ref="E16" r:id="rId3" display="JumpConfig.xlsx"/>
+    <hyperlink ref="E17" r:id="rId7" display="beginnerConfig@levelConfignew.xlsx" tooltip="mailto:beginnerConfig@levelConfignew.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/MiniTemplate/Datas/__tables__.xlsx
+++ b/Luban/MiniTemplate/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>beginnerConfig@levelConfignew.xlsx</t>
+  </si>
+  <si>
+    <t>Table_settlementConfig</t>
+  </si>
+  <si>
+    <t>levelConfignew_settlementConfig</t>
+  </si>
+  <si>
+    <t>settlementConfig@levelConfignew.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1496,6 +1505,20 @@
         <v>68</v>
       </c>
     </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="Global@GlobalResnew.xlsx" tooltip="mailto:Global@GlobalResnew.xlsx"/>
@@ -1508,6 +1531,7 @@
     <hyperlink ref="E15" r:id="rId3" display="turntableConfig.xlsx"/>
     <hyperlink ref="E16" r:id="rId3" display="JumpConfig.xlsx"/>
     <hyperlink ref="E17" r:id="rId7" display="beginnerConfig@levelConfignew.xlsx" tooltip="mailto:beginnerConfig@levelConfignew.xlsx"/>
+    <hyperlink ref="E18" r:id="rId8" display="settlementConfig@levelConfignew.xlsx" tooltip="mailto:settlementConfig@levelConfignew.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/MiniTemplate/Datas/__tables__.xlsx
+++ b/Luban/MiniTemplate/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>settlementConfig@levelConfignew.xlsx</t>
+  </si>
+  <si>
+    <t>Table_soundConfig</t>
+  </si>
+  <si>
+    <t>soundConfignew_soundConfig</t>
+  </si>
+  <si>
+    <t>soundConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1519,6 +1528,20 @@
         <v>71</v>
       </c>
     </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="Global@GlobalResnew.xlsx" tooltip="mailto:Global@GlobalResnew.xlsx"/>
@@ -1532,6 +1555,7 @@
     <hyperlink ref="E16" r:id="rId3" display="JumpConfig.xlsx"/>
     <hyperlink ref="E17" r:id="rId7" display="beginnerConfig@levelConfignew.xlsx" tooltip="mailto:beginnerConfig@levelConfignew.xlsx"/>
     <hyperlink ref="E18" r:id="rId8" display="settlementConfig@levelConfignew.xlsx" tooltip="mailto:settlementConfig@levelConfignew.xlsx"/>
+    <hyperlink ref="E19" r:id="rId8" display="soundConfig.xlsx" tooltip="mailto:settlementConfig@levelConfignew.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/MiniTemplate/Datas/__tables__.xlsx
+++ b/Luban/MiniTemplate/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>soundConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Table_languageConfig</t>
+  </si>
+  <si>
+    <t>languageConfignew_languageConfig</t>
+  </si>
+  <si>
+    <t>languageConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1212,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1540,6 +1549,20 @@
       </c>
       <c r="E19" s="3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
